--- a/PROYECTOS 22807.xlsx
+++ b/PROYECTOS 22807.xlsx
@@ -784,7 +784,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -812,6 +812,12 @@
       <u/>
       <sz val="11.0"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1015,7 +1021,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1070,7 +1076,10 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1079,7 +1088,7 @@
     <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1309,7 +1318,9 @@
     <col customWidth="1" min="5" max="5" width="18.71"/>
     <col customWidth="1" min="6" max="6" width="18.43"/>
     <col customWidth="1" min="7" max="7" width="17.71"/>
-    <col customWidth="1" min="8" max="26" width="10.71"/>
+    <col customWidth="1" min="8" max="13" width="10.71"/>
+    <col customWidth="1" min="14" max="14" width="16.71"/>
+    <col customWidth="1" min="15" max="26" width="10.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -3380,7 +3391,7 @@
       <c r="G57" s="12"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
-      <c r="J57" s="19" t="s">
+      <c r="J57" s="20" t="s">
         <v>184</v>
       </c>
       <c r="K57" s="2"/>
@@ -30613,10 +30624,10 @@
       <c r="C48" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="D48" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="E48" s="21" t="s">
+      <c r="E48" s="22" t="s">
         <v>243</v>
       </c>
     </row>
@@ -30630,7 +30641,7 @@
       <c r="C49" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="D49" s="22"/>
+      <c r="D49" s="23"/>
       <c r="E49" s="10"/>
     </row>
     <row r="50" ht="14.25" customHeight="1">
@@ -30656,7 +30667,7 @@
       <c r="C51" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D51" s="23" t="s">
+      <c r="D51" s="24" t="s">
         <v>244</v>
       </c>
       <c r="E51" s="10"/>

--- a/PROYECTOS 22807.xlsx
+++ b/PROYECTOS 22807.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="249">
   <si>
     <t>Dirección de correo electrónico</t>
   </si>
@@ -481,6 +481,15 @@
     <t>Gasali</t>
   </si>
   <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Blog realizado en clases. Le añadí los estilos con css, navbar y footer.</t>
+  </si>
+  <si>
+    <t>https://github.com/Leonardo-Rodrigo-Gasali/Proyecto-Full-Stack-Grupo-5</t>
+  </si>
+  <si>
     <t>cristiansena@gmail.com</t>
   </si>
   <si>
@@ -745,6 +754,9 @@
     <t>REPOSITORIOS - PAGINAS O VIDEOS</t>
   </si>
   <si>
+    <t>https://github.com/demiro68/crudreactnode.git</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Calibri"/>
@@ -784,7 +796,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -811,6 +823,12 @@
     <font>
       <u/>
       <sz val="11.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -818,6 +836,12 @@
       <u/>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1021,7 +1045,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1073,22 +1097,28 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3054,9 +3084,15 @@
       <c r="D48" s="10">
         <v>5.0</v>
       </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="12"/>
+      <c r="E48" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G48" s="20" t="s">
+        <v>156</v>
+      </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
@@ -3079,13 +3115,13 @@
     </row>
     <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D49" s="10">
         <v>5.0</v>
@@ -3096,7 +3132,7 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="18" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
@@ -3117,13 +3153,13 @@
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="8" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D50" s="10">
         <v>5.0</v>
@@ -3153,13 +3189,13 @@
     </row>
     <row r="51" ht="14.25" customHeight="1">
       <c r="A51" s="8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D51" s="10">
         <v>5.0</v>
@@ -3170,7 +3206,7 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="18" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
@@ -3191,13 +3227,13 @@
     </row>
     <row r="52" ht="14.25" customHeight="1">
       <c r="A52" s="8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D52" s="10">
         <v>5.0</v>
@@ -3227,13 +3263,13 @@
     </row>
     <row r="53" ht="14.25" customHeight="1">
       <c r="A53" s="13" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D53" s="15">
         <v>5.0</v>
@@ -3244,7 +3280,7 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="18" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
@@ -3265,13 +3301,13 @@
     </row>
     <row r="54" ht="14.25" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D54" s="5">
         <v>6.0</v>
@@ -3301,13 +3337,13 @@
     </row>
     <row r="55" ht="14.25" customHeight="1">
       <c r="A55" s="8" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D55" s="10">
         <v>6.0</v>
@@ -3317,8 +3353,8 @@
       <c r="G55" s="12"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
-      <c r="J55" s="19" t="s">
-        <v>177</v>
+      <c r="J55" s="21" t="s">
+        <v>180</v>
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
@@ -3339,13 +3375,13 @@
     </row>
     <row r="56" ht="14.25" customHeight="1">
       <c r="A56" s="8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D56" s="10">
         <v>6.0</v>
@@ -3375,13 +3411,13 @@
     </row>
     <row r="57" ht="14.25" customHeight="1">
       <c r="A57" s="8" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D57" s="10">
         <v>6.0</v>
@@ -3391,8 +3427,8 @@
       <c r="G57" s="12"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
-      <c r="J57" s="20" t="s">
-        <v>184</v>
+      <c r="J57" s="22" t="s">
+        <v>187</v>
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
@@ -3413,13 +3449,13 @@
     </row>
     <row r="58" ht="14.25" customHeight="1">
       <c r="A58" s="8" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D58" s="10">
         <v>6.0</v>
@@ -3449,13 +3485,13 @@
     </row>
     <row r="59" ht="14.25" customHeight="1">
       <c r="A59" s="8" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D59" s="10">
         <v>6.0</v>
@@ -3466,7 +3502,7 @@
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="18" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
@@ -3487,13 +3523,13 @@
     </row>
     <row r="60" ht="14.25" customHeight="1">
       <c r="A60" s="8" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D60" s="10">
         <v>6.0</v>
@@ -3503,8 +3539,8 @@
       <c r="G60" s="12"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
-      <c r="J60" s="19" t="s">
-        <v>195</v>
+      <c r="J60" s="22" t="s">
+        <v>198</v>
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
@@ -3525,13 +3561,13 @@
     </row>
     <row r="61" ht="14.25" customHeight="1">
       <c r="A61" s="8" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D61" s="10">
         <v>6.0</v>
@@ -3561,13 +3597,13 @@
     </row>
     <row r="62" ht="14.25" customHeight="1">
       <c r="A62" s="8" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D62" s="10">
         <v>6.0</v>
@@ -3578,7 +3614,7 @@
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="18" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
@@ -3599,13 +3635,13 @@
     </row>
     <row r="63" ht="14.25" customHeight="1">
       <c r="A63" s="13" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D63" s="15">
         <v>6.0</v>
@@ -3615,8 +3651,8 @@
       <c r="G63" s="17"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
-      <c r="J63" s="19" t="s">
-        <v>206</v>
+      <c r="J63" s="21" t="s">
+        <v>209</v>
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
@@ -3637,13 +3673,13 @@
     </row>
     <row r="64" ht="14.25" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D64" s="5">
         <v>7.0</v>
@@ -3673,13 +3709,13 @@
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="A65" s="8" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D65" s="10">
         <v>7.0</v>
@@ -3690,7 +3726,7 @@
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="18" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
@@ -3711,13 +3747,13 @@
     </row>
     <row r="66" ht="14.25" customHeight="1">
       <c r="A66" s="8" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D66" s="10">
         <v>7.0</v>
@@ -3727,8 +3763,8 @@
       <c r="G66" s="12"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
-      <c r="J66" s="19" t="s">
-        <v>217</v>
+      <c r="J66" s="21" t="s">
+        <v>220</v>
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
@@ -3749,13 +3785,13 @@
     </row>
     <row r="67" ht="14.25" customHeight="1">
       <c r="A67" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D67" s="10">
         <v>7.0</v>
@@ -3785,13 +3821,13 @@
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="A68" s="8" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D68" s="10">
         <v>7.0</v>
@@ -3802,7 +3838,7 @@
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="18" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
@@ -3823,13 +3859,13 @@
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="A69" s="8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D69" s="10">
         <v>7.0</v>
@@ -3840,7 +3876,7 @@
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="18" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
@@ -3861,13 +3897,13 @@
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="A70" s="8" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D70" s="10">
         <v>7.0</v>
@@ -3878,7 +3914,7 @@
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="18" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
@@ -3899,10 +3935,10 @@
     </row>
     <row r="71" ht="14.25" customHeight="1">
       <c r="A71" s="8" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>115</v>
@@ -3935,13 +3971,13 @@
     </row>
     <row r="72" ht="14.25" customHeight="1">
       <c r="A72" s="8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D72" s="10">
         <v>7.0</v>
@@ -3952,7 +3988,7 @@
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="18" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
@@ -3973,13 +4009,13 @@
     </row>
     <row r="73" ht="14.25" customHeight="1">
       <c r="A73" s="13" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D73" s="15">
         <v>7.0</v>
@@ -29968,16 +30004,17 @@
     <mergeCell ref="E2:E11"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="J55"/>
-    <hyperlink r:id="rId2" ref="J57"/>
-    <hyperlink r:id="rId3" ref="J60"/>
-    <hyperlink r:id="rId4" ref="J63"/>
-    <hyperlink r:id="rId5" ref="J66"/>
+    <hyperlink r:id="rId1" ref="G48"/>
+    <hyperlink r:id="rId2" ref="J55"/>
+    <hyperlink r:id="rId3" ref="J57"/>
+    <hyperlink r:id="rId4" ref="J60"/>
+    <hyperlink r:id="rId5" ref="J63"/>
+    <hyperlink r:id="rId6" ref="J66"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -30010,7 +30047,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -30364,7 +30401,9 @@
       <c r="C28" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="12"/>
+      <c r="D28" s="23" t="s">
+        <v>245</v>
+      </c>
       <c r="E28" s="10"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
@@ -30624,307 +30663,307 @@
       <c r="C48" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D48" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="E48" s="22" t="s">
-        <v>243</v>
+      <c r="D48" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="D49" s="23"/>
+        <v>158</v>
+      </c>
+      <c r="D49" s="25"/>
       <c r="E49" s="10"/>
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="8" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D50" s="12"/>
       <c r="E50" s="10"/>
     </row>
     <row r="51" ht="14.25" customHeight="1">
       <c r="A51" s="8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="D51" s="24" t="s">
-        <v>244</v>
+        <v>165</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>248</v>
       </c>
       <c r="E51" s="10"/>
     </row>
     <row r="52" ht="14.25" customHeight="1">
       <c r="A52" s="8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D52" s="12"/>
       <c r="E52" s="10"/>
     </row>
     <row r="53" ht="14.25" customHeight="1">
       <c r="A53" s="13" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="15"/>
     </row>
     <row r="54" ht="14.25" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="5"/>
     </row>
     <row r="55" ht="14.25" customHeight="1">
       <c r="A55" s="8" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D55" s="12"/>
       <c r="E55" s="10"/>
     </row>
     <row r="56" ht="14.25" customHeight="1">
       <c r="A56" s="8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D56" s="12"/>
       <c r="E56" s="10"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
       <c r="A57" s="8" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D57" s="12"/>
       <c r="E57" s="10"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
       <c r="A58" s="8" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D58" s="12"/>
       <c r="E58" s="10"/>
     </row>
     <row r="59" ht="14.25" customHeight="1">
       <c r="A59" s="8" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D59" s="12"/>
       <c r="E59" s="10"/>
     </row>
     <row r="60" ht="14.25" customHeight="1">
       <c r="A60" s="8" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D60" s="12"/>
       <c r="E60" s="10"/>
     </row>
     <row r="61" ht="14.25" customHeight="1">
       <c r="A61" s="8" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D61" s="12"/>
       <c r="E61" s="10"/>
     </row>
     <row r="62" ht="14.25" customHeight="1">
       <c r="A62" s="8" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D62" s="12"/>
       <c r="E62" s="10"/>
     </row>
     <row r="63" ht="14.25" customHeight="1">
       <c r="A63" s="13" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D63" s="17"/>
       <c r="E63" s="15"/>
     </row>
     <row r="64" ht="14.25" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="5"/>
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="A65" s="8" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D65" s="12"/>
       <c r="E65" s="10"/>
     </row>
     <row r="66" ht="14.25" customHeight="1">
       <c r="A66" s="8" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D66" s="12"/>
       <c r="E66" s="10"/>
     </row>
     <row r="67" ht="14.25" customHeight="1">
       <c r="A67" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D67" s="12"/>
       <c r="E67" s="10"/>
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="A68" s="8" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D68" s="12"/>
       <c r="E68" s="10"/>
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="A69" s="8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D69" s="12"/>
       <c r="E69" s="10"/>
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="A70" s="8" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D70" s="12"/>
       <c r="E70" s="10"/>
     </row>
     <row r="71" ht="14.25" customHeight="1">
       <c r="A71" s="8" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>115</v>
@@ -30934,26 +30973,26 @@
     </row>
     <row r="72" ht="14.25" customHeight="1">
       <c r="A72" s="8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D72" s="12"/>
       <c r="E72" s="10"/>
     </row>
     <row r="73" ht="14.25" customHeight="1">
       <c r="A73" s="13" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D73" s="17"/>
       <c r="E73" s="15"/>
@@ -37449,12 +37488,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D48"/>
-    <hyperlink r:id="rId2" ref="D51"/>
+    <hyperlink r:id="rId1" ref="D28"/>
+    <hyperlink r:id="rId2" ref="D48"/>
+    <hyperlink r:id="rId3" ref="D51"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/PROYECTOS 22807.xlsx
+++ b/PROYECTOS 22807.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="252">
   <si>
     <t>Dirección de correo electrónico</t>
   </si>
@@ -658,6 +658,15 @@
     <t>Fuente</t>
   </si>
   <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wYpCWwD1oz0&amp;t=5739s</t>
+  </si>
+  <si>
+    <t>https://github.com/Delfor29/DashboardReact.git</t>
+  </si>
+  <si>
     <t>victor.vies@gmail.com</t>
   </si>
   <si>
@@ -796,7 +805,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -823,7 +832,7 @@
     <font>
       <u/>
       <sz val="11.0"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -847,7 +856,13 @@
     <font>
       <u/>
       <sz val="11.0"/>
-      <color rgb="FF0563C1"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1045,7 +1060,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1109,16 +1124,22 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3684,9 +3705,15 @@
       <c r="D64" s="5">
         <v>7.0</v>
       </c>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="7"/>
+      <c r="E64" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="F64" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="G64" s="25" t="s">
+        <v>215</v>
+      </c>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
@@ -3709,13 +3736,13 @@
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="A65" s="8" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D65" s="10">
         <v>7.0</v>
@@ -3726,7 +3753,7 @@
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="18" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
@@ -3747,13 +3774,13 @@
     </row>
     <row r="66" ht="14.25" customHeight="1">
       <c r="A66" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D66" s="10">
         <v>7.0</v>
@@ -3764,7 +3791,7 @@
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="21" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
@@ -3785,13 +3812,13 @@
     </row>
     <row r="67" ht="14.25" customHeight="1">
       <c r="A67" s="8" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D67" s="10">
         <v>7.0</v>
@@ -3821,13 +3848,13 @@
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="A68" s="8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D68" s="10">
         <v>7.0</v>
@@ -3838,7 +3865,7 @@
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="18" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
@@ -3859,13 +3886,13 @@
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="A69" s="8" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D69" s="10">
         <v>7.0</v>
@@ -3876,7 +3903,7 @@
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="18" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
@@ -3897,13 +3924,13 @@
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="A70" s="8" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D70" s="10">
         <v>7.0</v>
@@ -3914,7 +3941,7 @@
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="18" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
@@ -3935,7 +3962,7 @@
     </row>
     <row r="71" ht="14.25" customHeight="1">
       <c r="A71" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>168</v>
@@ -3971,13 +3998,13 @@
     </row>
     <row r="72" ht="14.25" customHeight="1">
       <c r="A72" s="8" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D72" s="10">
         <v>7.0</v>
@@ -3988,7 +4015,7 @@
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="18" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
@@ -4009,13 +4036,13 @@
     </row>
     <row r="73" ht="14.25" customHeight="1">
       <c r="A73" s="13" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D73" s="15">
         <v>7.0</v>
@@ -30009,12 +30036,14 @@
     <hyperlink r:id="rId3" ref="J57"/>
     <hyperlink r:id="rId4" ref="J60"/>
     <hyperlink r:id="rId5" ref="J63"/>
-    <hyperlink r:id="rId6" ref="J66"/>
+    <hyperlink r:id="rId6" ref="F64"/>
+    <hyperlink r:id="rId7" ref="G64"/>
+    <hyperlink r:id="rId8" ref="J66"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId7"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -30047,7 +30076,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -30401,8 +30430,8 @@
       <c r="C28" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="23" t="s">
-        <v>245</v>
+      <c r="D28" s="26" t="s">
+        <v>248</v>
       </c>
       <c r="E28" s="10"/>
     </row>
@@ -30663,11 +30692,11 @@
       <c r="C48" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D48" s="24" t="s">
-        <v>246</v>
+      <c r="D48" s="27" t="s">
+        <v>249</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1">
@@ -30680,7 +30709,7 @@
       <c r="C49" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="D49" s="25"/>
+      <c r="D49" s="28"/>
       <c r="E49" s="10"/>
     </row>
     <row r="50" ht="14.25" customHeight="1">
@@ -30706,8 +30735,8 @@
       <c r="C51" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="D51" s="26" t="s">
-        <v>248</v>
+      <c r="D51" s="20" t="s">
+        <v>251</v>
       </c>
       <c r="E51" s="10"/>
     </row>
@@ -30882,85 +30911,85 @@
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="A65" s="8" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D65" s="12"/>
       <c r="E65" s="10"/>
     </row>
     <row r="66" ht="14.25" customHeight="1">
       <c r="A66" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D66" s="12"/>
       <c r="E66" s="10"/>
     </row>
     <row r="67" ht="14.25" customHeight="1">
       <c r="A67" s="8" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D67" s="12"/>
       <c r="E67" s="10"/>
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="A68" s="8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D68" s="12"/>
       <c r="E68" s="10"/>
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="A69" s="8" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D69" s="12"/>
       <c r="E69" s="10"/>
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="A70" s="8" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D70" s="12"/>
       <c r="E70" s="10"/>
     </row>
     <row r="71" ht="14.25" customHeight="1">
       <c r="A71" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>168</v>
@@ -30973,26 +31002,26 @@
     </row>
     <row r="72" ht="14.25" customHeight="1">
       <c r="A72" s="8" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D72" s="12"/>
       <c r="E72" s="10"/>
     </row>
     <row r="73" ht="14.25" customHeight="1">
       <c r="A73" s="13" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D73" s="17"/>
       <c r="E73" s="15"/>

--- a/PROYECTOS 22807.xlsx
+++ b/PROYECTOS 22807.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="259">
   <si>
     <t>Dirección de correo electrónico</t>
   </si>
@@ -137,6 +137,15 @@
   </si>
   <si>
     <t>Echagüe</t>
+  </si>
+  <si>
+    <t>SW - Personajes</t>
+  </si>
+  <si>
+    <t>Subido el front</t>
+  </si>
+  <si>
+    <t>https://github.com/adriMemu/react-app.git</t>
   </si>
   <si>
     <t>isabelrodriguez.dg@gmail.com</t>
@@ -517,6 +526,15 @@
     <t>Gutiérrez</t>
   </si>
   <si>
+    <t>Meety</t>
+  </si>
+  <si>
+    <t>Todavia esta algo crudo, pero tiene la forma y la idea del desarrollo en camino (no creo que llegue al deploy)</t>
+  </si>
+  <si>
+    <t>https://github.com/ag171980/fullstack-react-node</t>
+  </si>
+  <si>
     <t>:large_green_circle:Fake Api dummy: https://lnkd.in/ePCTF5Vu</t>
   </si>
   <si>
@@ -763,6 +781,51 @@
     <t>REPOSITORIOS - PAGINAS O VIDEOS</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF1155CC"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t>https://sebaez85.github.io/id-card/--</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF1155CC"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t>https://sebaez85.github.io/20-mejores-ps4/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> -- </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF1155CC"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t xml:space="preserve">https://sebaez85.github.io/rick-morty-api/ </t>
+    </r>
+  </si>
+  <si>
     <t>https://github.com/demiro68/crudreactnode.git</t>
   </si>
   <si>
@@ -805,7 +868,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -832,7 +895,19 @@
     <font>
       <u/>
       <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
       <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1060,7 +1135,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1109,34 +1184,40 @@
     <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1367,8 +1448,8 @@
     <col customWidth="1" min="3" max="3" width="26.0"/>
     <col customWidth="1" min="4" max="4" width="11.57"/>
     <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="18.43"/>
-    <col customWidth="1" min="7" max="7" width="17.71"/>
+    <col customWidth="1" min="6" max="6" width="36.71"/>
+    <col customWidth="1" min="7" max="7" width="34.86"/>
     <col customWidth="1" min="8" max="13" width="10.71"/>
     <col customWidth="1" min="14" max="14" width="16.71"/>
     <col customWidth="1" min="15" max="26" width="10.71"/>
@@ -1789,9 +1870,15 @@
       <c r="D12" s="5">
         <v>2.0</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="7"/>
+      <c r="E12" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>42</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1814,13 +1901,13 @@
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D13" s="10">
         <v>2.0</v>
@@ -1850,13 +1937,13 @@
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D14" s="10">
         <v>2.0</v>
@@ -1886,13 +1973,13 @@
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D15" s="10">
         <v>2.0</v>
@@ -1922,13 +2009,13 @@
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D16" s="10">
         <v>2.0</v>
@@ -1958,13 +2045,13 @@
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D17" s="10">
         <v>2.0</v>
@@ -1994,13 +2081,13 @@
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D18" s="10">
         <v>2.0</v>
@@ -2030,13 +2117,13 @@
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D19" s="10">
         <v>2.0</v>
@@ -2066,13 +2153,13 @@
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D20" s="10">
         <v>2.0</v>
@@ -2102,13 +2189,13 @@
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D21" s="10">
         <v>2.0</v>
@@ -2138,13 +2225,13 @@
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D22" s="15">
         <v>2.0</v>
@@ -2174,13 +2261,13 @@
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D23" s="5">
         <v>3.0</v>
@@ -2210,13 +2297,13 @@
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D24" s="10">
         <v>3.0</v>
@@ -2246,13 +2333,13 @@
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D25" s="10">
         <v>3.0</v>
@@ -2282,13 +2369,13 @@
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D26" s="10">
         <v>3.0</v>
@@ -2318,13 +2405,13 @@
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D27" s="10">
         <v>3.0</v>
@@ -2354,13 +2441,13 @@
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D28" s="10">
         <v>3.0</v>
@@ -2390,13 +2477,13 @@
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D29" s="10">
         <v>3.0</v>
@@ -2426,13 +2513,13 @@
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D30" s="10">
         <v>3.0</v>
@@ -2442,8 +2529,8 @@
       <c r="G30" s="12"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="18" t="s">
-        <v>93</v>
+      <c r="J30" s="20" t="s">
+        <v>96</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -2464,13 +2551,13 @@
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D31" s="10">
         <v>3.0</v>
@@ -2480,8 +2567,8 @@
       <c r="G31" s="12"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="18" t="s">
-        <v>96</v>
+      <c r="J31" s="20" t="s">
+        <v>99</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -2502,13 +2589,13 @@
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="13" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D32" s="15">
         <v>3.0</v>
@@ -2538,13 +2625,13 @@
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D33" s="5">
         <v>4.0</v>
@@ -2554,8 +2641,8 @@
       <c r="G33" s="7"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="18" t="s">
-        <v>102</v>
+      <c r="J33" s="20" t="s">
+        <v>105</v>
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -2576,13 +2663,13 @@
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D34" s="10">
         <v>4.0</v>
@@ -2612,13 +2699,13 @@
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="8" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D35" s="10">
         <v>4.0</v>
@@ -2628,8 +2715,8 @@
       <c r="G35" s="12"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
-      <c r="J35" s="18" t="s">
-        <v>109</v>
+      <c r="J35" s="20" t="s">
+        <v>112</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -2650,13 +2737,13 @@
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D36" s="10">
         <v>4.0</v>
@@ -2686,13 +2773,13 @@
     </row>
     <row r="37" ht="14.25" customHeight="1">
       <c r="A37" s="8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D37" s="10">
         <v>4.0</v>
@@ -2702,8 +2789,8 @@
       <c r="G37" s="12"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-      <c r="J37" s="18" t="s">
-        <v>116</v>
+      <c r="J37" s="20" t="s">
+        <v>119</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -2724,13 +2811,13 @@
     </row>
     <row r="38" ht="14.25" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D38" s="10">
         <v>4.0</v>
@@ -2760,13 +2847,13 @@
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="A39" s="8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D39" s="10">
         <v>4.0</v>
@@ -2776,8 +2863,8 @@
       <c r="G39" s="12"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="18" t="s">
-        <v>122</v>
+      <c r="J39" s="20" t="s">
+        <v>125</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
@@ -2798,13 +2885,13 @@
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D40" s="10">
         <v>4.0</v>
@@ -2834,13 +2921,13 @@
     </row>
     <row r="41" ht="14.25" customHeight="1">
       <c r="A41" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D41" s="10">
         <v>4.0</v>
@@ -2850,8 +2937,8 @@
       <c r="G41" s="12"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
-      <c r="J41" s="18" t="s">
-        <v>129</v>
+      <c r="J41" s="20" t="s">
+        <v>132</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
@@ -2872,13 +2959,13 @@
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="13" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D42" s="15">
         <v>4.0</v>
@@ -2908,13 +2995,13 @@
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D43" s="5">
         <v>5.0</v>
@@ -2924,8 +3011,8 @@
       <c r="G43" s="7"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
-      <c r="J43" s="18" t="s">
-        <v>136</v>
+      <c r="J43" s="20" t="s">
+        <v>139</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
@@ -2946,13 +3033,13 @@
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D44" s="10">
         <v>5.0</v>
@@ -2982,13 +3069,13 @@
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="8" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D45" s="10">
         <v>5.0</v>
@@ -2998,8 +3085,8 @@
       <c r="G45" s="12"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
-      <c r="J45" s="18" t="s">
-        <v>143</v>
+      <c r="J45" s="20" t="s">
+        <v>146</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
@@ -3020,13 +3107,13 @@
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D46" s="10">
         <v>5.0</v>
@@ -3056,13 +3143,13 @@
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="8" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D47" s="10">
         <v>5.0</v>
@@ -3072,8 +3159,8 @@
       <c r="G47" s="12"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
-      <c r="J47" s="18" t="s">
-        <v>150</v>
+      <c r="J47" s="20" t="s">
+        <v>153</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
@@ -3094,25 +3181,25 @@
     </row>
     <row r="48" ht="14.25" customHeight="1">
       <c r="A48" s="8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D48" s="10">
         <v>5.0</v>
       </c>
-      <c r="E48" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="F48" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="G48" s="20" t="s">
-        <v>156</v>
+      <c r="E48" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>159</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -3136,13 +3223,13 @@
     </row>
     <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="8" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D49" s="10">
         <v>5.0</v>
@@ -3152,8 +3239,8 @@
       <c r="G49" s="12"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
-      <c r="J49" s="18" t="s">
-        <v>159</v>
+      <c r="J49" s="20" t="s">
+        <v>162</v>
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
@@ -3174,13 +3261,13 @@
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D50" s="10">
         <v>5.0</v>
@@ -3210,24 +3297,30 @@
     </row>
     <row r="51" ht="14.25" customHeight="1">
       <c r="A51" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D51" s="10">
         <v>5.0</v>
       </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="12"/>
+      <c r="E51" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>171</v>
+      </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
-      <c r="J51" s="18" t="s">
-        <v>166</v>
+      <c r="J51" s="20" t="s">
+        <v>172</v>
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
@@ -3248,13 +3341,13 @@
     </row>
     <row r="52" ht="14.25" customHeight="1">
       <c r="A52" s="8" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D52" s="10">
         <v>5.0</v>
@@ -3284,13 +3377,13 @@
     </row>
     <row r="53" ht="14.25" customHeight="1">
       <c r="A53" s="13" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D53" s="15">
         <v>5.0</v>
@@ -3300,8 +3393,8 @@
       <c r="G53" s="17"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
-      <c r="J53" s="18" t="s">
-        <v>173</v>
+      <c r="J53" s="20" t="s">
+        <v>179</v>
       </c>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
@@ -3322,13 +3415,13 @@
     </row>
     <row r="54" ht="14.25" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D54" s="5">
         <v>6.0</v>
@@ -3358,13 +3451,13 @@
     </row>
     <row r="55" ht="14.25" customHeight="1">
       <c r="A55" s="8" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D55" s="10">
         <v>6.0</v>
@@ -3374,8 +3467,8 @@
       <c r="G55" s="12"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
-      <c r="J55" s="21" t="s">
-        <v>180</v>
+      <c r="J55" s="24" t="s">
+        <v>186</v>
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
@@ -3396,13 +3489,13 @@
     </row>
     <row r="56" ht="14.25" customHeight="1">
       <c r="A56" s="8" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D56" s="10">
         <v>6.0</v>
@@ -3432,13 +3525,13 @@
     </row>
     <row r="57" ht="14.25" customHeight="1">
       <c r="A57" s="8" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D57" s="10">
         <v>6.0</v>
@@ -3448,8 +3541,8 @@
       <c r="G57" s="12"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
-      <c r="J57" s="22" t="s">
-        <v>187</v>
+      <c r="J57" s="25" t="s">
+        <v>193</v>
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
@@ -3470,13 +3563,13 @@
     </row>
     <row r="58" ht="14.25" customHeight="1">
       <c r="A58" s="8" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D58" s="10">
         <v>6.0</v>
@@ -3506,13 +3599,13 @@
     </row>
     <row r="59" ht="14.25" customHeight="1">
       <c r="A59" s="8" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D59" s="10">
         <v>6.0</v>
@@ -3522,8 +3615,8 @@
       <c r="G59" s="12"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
-      <c r="J59" s="18" t="s">
-        <v>194</v>
+      <c r="J59" s="20" t="s">
+        <v>200</v>
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
@@ -3544,13 +3637,13 @@
     </row>
     <row r="60" ht="14.25" customHeight="1">
       <c r="A60" s="8" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D60" s="10">
         <v>6.0</v>
@@ -3560,8 +3653,8 @@
       <c r="G60" s="12"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
-      <c r="J60" s="22" t="s">
-        <v>198</v>
+      <c r="J60" s="25" t="s">
+        <v>204</v>
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
@@ -3582,13 +3675,13 @@
     </row>
     <row r="61" ht="14.25" customHeight="1">
       <c r="A61" s="8" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D61" s="10">
         <v>6.0</v>
@@ -3618,13 +3711,13 @@
     </row>
     <row r="62" ht="14.25" customHeight="1">
       <c r="A62" s="8" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D62" s="10">
         <v>6.0</v>
@@ -3634,8 +3727,8 @@
       <c r="G62" s="12"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
-      <c r="J62" s="18" t="s">
-        <v>205</v>
+      <c r="J62" s="20" t="s">
+        <v>211</v>
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
@@ -3656,13 +3749,13 @@
     </row>
     <row r="63" ht="14.25" customHeight="1">
       <c r="A63" s="13" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D63" s="15">
         <v>6.0</v>
@@ -3672,8 +3765,8 @@
       <c r="G63" s="17"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
-      <c r="J63" s="21" t="s">
-        <v>209</v>
+      <c r="J63" s="24" t="s">
+        <v>215</v>
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
@@ -3694,25 +3787,25 @@
     </row>
     <row r="64" ht="14.25" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D64" s="5">
         <v>7.0</v>
       </c>
-      <c r="E64" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="F64" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="G64" s="25" t="s">
-        <v>215</v>
+      <c r="E64" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="F64" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="G64" s="19" t="s">
+        <v>221</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
@@ -3736,13 +3829,13 @@
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="A65" s="8" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D65" s="10">
         <v>7.0</v>
@@ -3752,8 +3845,8 @@
       <c r="G65" s="12"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
-      <c r="J65" s="18" t="s">
-        <v>219</v>
+      <c r="J65" s="20" t="s">
+        <v>225</v>
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
@@ -3774,13 +3867,13 @@
     </row>
     <row r="66" ht="14.25" customHeight="1">
       <c r="A66" s="8" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D66" s="10">
         <v>7.0</v>
@@ -3790,8 +3883,8 @@
       <c r="G66" s="12"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
-      <c r="J66" s="21" t="s">
-        <v>223</v>
+      <c r="J66" s="24" t="s">
+        <v>229</v>
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
@@ -3812,13 +3905,13 @@
     </row>
     <row r="67" ht="14.25" customHeight="1">
       <c r="A67" s="8" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D67" s="10">
         <v>7.0</v>
@@ -3848,13 +3941,13 @@
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="A68" s="8" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D68" s="10">
         <v>7.0</v>
@@ -3864,8 +3957,8 @@
       <c r="G68" s="12"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
-      <c r="J68" s="18" t="s">
-        <v>230</v>
+      <c r="J68" s="20" t="s">
+        <v>236</v>
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
@@ -3886,13 +3979,13 @@
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="A69" s="8" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D69" s="10">
         <v>7.0</v>
@@ -3902,8 +3995,8 @@
       <c r="G69" s="12"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
-      <c r="J69" s="18" t="s">
-        <v>234</v>
+      <c r="J69" s="20" t="s">
+        <v>240</v>
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
@@ -3924,13 +4017,13 @@
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="A70" s="8" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D70" s="10">
         <v>7.0</v>
@@ -3940,8 +4033,8 @@
       <c r="G70" s="12"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
-      <c r="J70" s="18" t="s">
-        <v>238</v>
+      <c r="J70" s="20" t="s">
+        <v>244</v>
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
@@ -3962,13 +4055,13 @@
     </row>
     <row r="71" ht="14.25" customHeight="1">
       <c r="A71" s="8" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D71" s="10">
         <v>7.0</v>
@@ -3998,13 +4091,13 @@
     </row>
     <row r="72" ht="14.25" customHeight="1">
       <c r="A72" s="8" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D72" s="10">
         <v>7.0</v>
@@ -4014,8 +4107,8 @@
       <c r="G72" s="12"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
-      <c r="J72" s="18" t="s">
-        <v>243</v>
+      <c r="J72" s="20" t="s">
+        <v>249</v>
       </c>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
@@ -4036,13 +4129,13 @@
     </row>
     <row r="73" ht="14.25" customHeight="1">
       <c r="A73" s="13" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D73" s="15">
         <v>7.0</v>
@@ -4052,7 +4145,7 @@
       <c r="G73" s="17"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
-      <c r="J73" s="18"/>
+      <c r="J73" s="20"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
@@ -4080,7 +4173,7 @@
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
-      <c r="J74" s="18"/>
+      <c r="J74" s="20"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
@@ -4108,7 +4201,7 @@
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
-      <c r="J75" s="18"/>
+      <c r="J75" s="20"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
@@ -4136,7 +4229,7 @@
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
-      <c r="J76" s="18"/>
+      <c r="J76" s="20"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
@@ -4164,7 +4257,7 @@
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
-      <c r="J77" s="18"/>
+      <c r="J77" s="20"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
@@ -4192,7 +4285,7 @@
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
-      <c r="J78" s="18"/>
+      <c r="J78" s="20"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
@@ -4220,7 +4313,7 @@
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
-      <c r="J79" s="18"/>
+      <c r="J79" s="20"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
@@ -4248,7 +4341,7 @@
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
-      <c r="J80" s="18"/>
+      <c r="J80" s="20"/>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
@@ -4276,7 +4369,7 @@
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
-      <c r="J81" s="18"/>
+      <c r="J81" s="20"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
@@ -4304,7 +4397,7 @@
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
-      <c r="J82" s="18"/>
+      <c r="J82" s="20"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
@@ -4332,7 +4425,7 @@
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
-      <c r="J83" s="18"/>
+      <c r="J83" s="20"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
@@ -4360,7 +4453,7 @@
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
-      <c r="J84" s="18"/>
+      <c r="J84" s="20"/>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
@@ -4388,7 +4481,7 @@
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
-      <c r="J85" s="18"/>
+      <c r="J85" s="20"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
@@ -4416,7 +4509,7 @@
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
-      <c r="J86" s="18"/>
+      <c r="J86" s="20"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
@@ -4444,7 +4537,7 @@
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
-      <c r="J87" s="18"/>
+      <c r="J87" s="20"/>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
@@ -4472,7 +4565,7 @@
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
-      <c r="J88" s="18"/>
+      <c r="J88" s="20"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
@@ -4500,7 +4593,7 @@
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
-      <c r="J89" s="18"/>
+      <c r="J89" s="20"/>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
@@ -4528,7 +4621,7 @@
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
-      <c r="J90" s="18"/>
+      <c r="J90" s="20"/>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
@@ -4556,7 +4649,7 @@
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
-      <c r="J91" s="18"/>
+      <c r="J91" s="20"/>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
@@ -4584,7 +4677,7 @@
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
-      <c r="J92" s="18"/>
+      <c r="J92" s="20"/>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
@@ -4612,7 +4705,7 @@
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
-      <c r="J93" s="18"/>
+      <c r="J93" s="20"/>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
@@ -4640,7 +4733,7 @@
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
-      <c r="J94" s="18"/>
+      <c r="J94" s="20"/>
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
@@ -4668,7 +4761,7 @@
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
-      <c r="J95" s="18"/>
+      <c r="J95" s="20"/>
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
@@ -4696,7 +4789,7 @@
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
-      <c r="J96" s="18"/>
+      <c r="J96" s="20"/>
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
@@ -4724,7 +4817,7 @@
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
-      <c r="J97" s="18"/>
+      <c r="J97" s="20"/>
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
@@ -4752,7 +4845,7 @@
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
-      <c r="J98" s="18"/>
+      <c r="J98" s="20"/>
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
@@ -4780,7 +4873,7 @@
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
-      <c r="J99" s="18"/>
+      <c r="J99" s="20"/>
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
@@ -4808,7 +4901,7 @@
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
-      <c r="J100" s="18"/>
+      <c r="J100" s="20"/>
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
@@ -4836,7 +4929,7 @@
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
-      <c r="J101" s="18"/>
+      <c r="J101" s="20"/>
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
@@ -4864,7 +4957,7 @@
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
-      <c r="J102" s="18"/>
+      <c r="J102" s="20"/>
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
@@ -4892,7 +4985,7 @@
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
-      <c r="J103" s="18"/>
+      <c r="J103" s="20"/>
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
@@ -4920,7 +5013,7 @@
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
-      <c r="J104" s="18"/>
+      <c r="J104" s="20"/>
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
@@ -4948,7 +5041,7 @@
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
-      <c r="J105" s="18"/>
+      <c r="J105" s="20"/>
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
@@ -4976,7 +5069,7 @@
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
-      <c r="J106" s="18"/>
+      <c r="J106" s="20"/>
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
@@ -5004,7 +5097,7 @@
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
-      <c r="J107" s="18"/>
+      <c r="J107" s="20"/>
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
@@ -5032,7 +5125,7 @@
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
-      <c r="J108" s="18"/>
+      <c r="J108" s="20"/>
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
@@ -5060,7 +5153,7 @@
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
-      <c r="J109" s="18"/>
+      <c r="J109" s="20"/>
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
@@ -5088,7 +5181,7 @@
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
-      <c r="J110" s="18"/>
+      <c r="J110" s="20"/>
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
@@ -5116,7 +5209,7 @@
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
-      <c r="J111" s="18"/>
+      <c r="J111" s="20"/>
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
@@ -5144,7 +5237,7 @@
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
-      <c r="J112" s="18"/>
+      <c r="J112" s="20"/>
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
@@ -5172,7 +5265,7 @@
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
-      <c r="J113" s="18"/>
+      <c r="J113" s="20"/>
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
       <c r="M113" s="2"/>
@@ -5200,7 +5293,7 @@
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
-      <c r="J114" s="18"/>
+      <c r="J114" s="20"/>
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
       <c r="M114" s="2"/>
@@ -5228,7 +5321,7 @@
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
-      <c r="J115" s="18"/>
+      <c r="J115" s="20"/>
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
       <c r="M115" s="2"/>
@@ -5256,7 +5349,7 @@
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
-      <c r="J116" s="18"/>
+      <c r="J116" s="20"/>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
@@ -5284,7 +5377,7 @@
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
-      <c r="J117" s="18"/>
+      <c r="J117" s="20"/>
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
@@ -5312,7 +5405,7 @@
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
-      <c r="J118" s="18"/>
+      <c r="J118" s="20"/>
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
@@ -5340,7 +5433,7 @@
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
-      <c r="J119" s="18"/>
+      <c r="J119" s="20"/>
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
@@ -5368,7 +5461,7 @@
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
-      <c r="J120" s="18"/>
+      <c r="J120" s="20"/>
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
       <c r="M120" s="2"/>
@@ -5396,7 +5489,7 @@
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
-      <c r="J121" s="18"/>
+      <c r="J121" s="20"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
       <c r="M121" s="2"/>
@@ -5424,7 +5517,7 @@
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
-      <c r="J122" s="18"/>
+      <c r="J122" s="20"/>
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
@@ -30031,19 +30124,21 @@
     <mergeCell ref="E2:E11"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G48"/>
-    <hyperlink r:id="rId2" ref="J55"/>
-    <hyperlink r:id="rId3" ref="J57"/>
-    <hyperlink r:id="rId4" ref="J60"/>
-    <hyperlink r:id="rId5" ref="J63"/>
-    <hyperlink r:id="rId6" ref="F64"/>
-    <hyperlink r:id="rId7" ref="G64"/>
-    <hyperlink r:id="rId8" ref="J66"/>
+    <hyperlink r:id="rId1" ref="G12"/>
+    <hyperlink r:id="rId2" ref="G48"/>
+    <hyperlink r:id="rId3" ref="G51"/>
+    <hyperlink r:id="rId4" ref="J55"/>
+    <hyperlink r:id="rId5" ref="J57"/>
+    <hyperlink r:id="rId6" ref="J60"/>
+    <hyperlink r:id="rId7" ref="J63"/>
+    <hyperlink r:id="rId8" ref="F64"/>
+    <hyperlink r:id="rId9" ref="G64"/>
+    <hyperlink r:id="rId10" ref="J66"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId9"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -30076,7 +30171,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -30183,7 +30278,9 @@
       <c r="C9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="27" t="s">
+        <v>254</v>
+      </c>
       <c r="E9" s="10"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
@@ -30227,801 +30324,801 @@
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="10"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="10"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="10"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="10"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="10"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="10"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="10"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="10"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="10"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="15"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="5"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="10"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="10"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="10"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="10"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>248</v>
+        <v>89</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>255</v>
       </c>
       <c r="E28" s="10"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="10"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="10"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="10"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="13" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="15"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="5"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="10"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="8" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="10"/>
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="10"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
       <c r="A37" s="8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="10"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="10"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="A39" s="8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="10"/>
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="10"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
       <c r="A41" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D41" s="12"/>
       <c r="E41" s="10"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="13" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="15"/>
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="5"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D44" s="12"/>
       <c r="E44" s="10"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="8" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="10"/>
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D46" s="12"/>
       <c r="E46" s="10"/>
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="8" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D47" s="12"/>
       <c r="E47" s="10"/>
     </row>
     <row r="48" ht="14.25" customHeight="1">
       <c r="A48" s="8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>250</v>
+        <v>156</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="8" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D49" s="28"/>
+        <v>161</v>
+      </c>
+      <c r="D49" s="30"/>
       <c r="E49" s="10"/>
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D50" s="12"/>
       <c r="E50" s="10"/>
     </row>
     <row r="51" ht="14.25" customHeight="1">
       <c r="A51" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>251</v>
+        <v>168</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>258</v>
       </c>
       <c r="E51" s="10"/>
     </row>
     <row r="52" ht="14.25" customHeight="1">
       <c r="A52" s="8" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D52" s="12"/>
       <c r="E52" s="10"/>
     </row>
     <row r="53" ht="14.25" customHeight="1">
       <c r="A53" s="13" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="15"/>
     </row>
     <row r="54" ht="14.25" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="5"/>
     </row>
     <row r="55" ht="14.25" customHeight="1">
       <c r="A55" s="8" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D55" s="12"/>
       <c r="E55" s="10"/>
     </row>
     <row r="56" ht="14.25" customHeight="1">
       <c r="A56" s="8" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D56" s="12"/>
       <c r="E56" s="10"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
       <c r="A57" s="8" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D57" s="12"/>
       <c r="E57" s="10"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
       <c r="A58" s="8" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D58" s="12"/>
       <c r="E58" s="10"/>
     </row>
     <row r="59" ht="14.25" customHeight="1">
       <c r="A59" s="8" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D59" s="12"/>
       <c r="E59" s="10"/>
     </row>
     <row r="60" ht="14.25" customHeight="1">
       <c r="A60" s="8" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D60" s="12"/>
       <c r="E60" s="10"/>
     </row>
     <row r="61" ht="14.25" customHeight="1">
       <c r="A61" s="8" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D61" s="12"/>
       <c r="E61" s="10"/>
     </row>
     <row r="62" ht="14.25" customHeight="1">
       <c r="A62" s="8" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D62" s="12"/>
       <c r="E62" s="10"/>
     </row>
     <row r="63" ht="14.25" customHeight="1">
       <c r="A63" s="13" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D63" s="17"/>
       <c r="E63" s="15"/>
     </row>
     <row r="64" ht="14.25" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="5"/>
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="A65" s="8" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D65" s="12"/>
       <c r="E65" s="10"/>
     </row>
     <row r="66" ht="14.25" customHeight="1">
       <c r="A66" s="8" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D66" s="12"/>
       <c r="E66" s="10"/>
     </row>
     <row r="67" ht="14.25" customHeight="1">
       <c r="A67" s="8" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D67" s="12"/>
       <c r="E67" s="10"/>
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="A68" s="8" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D68" s="12"/>
       <c r="E68" s="10"/>
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="A69" s="8" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D69" s="12"/>
       <c r="E69" s="10"/>
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="A70" s="8" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D70" s="12"/>
       <c r="E70" s="10"/>
     </row>
     <row r="71" ht="14.25" customHeight="1">
       <c r="A71" s="8" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D71" s="12"/>
       <c r="E71" s="10"/>
     </row>
     <row r="72" ht="14.25" customHeight="1">
       <c r="A72" s="8" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D72" s="12"/>
       <c r="E72" s="10"/>
     </row>
     <row r="73" ht="14.25" customHeight="1">
       <c r="A73" s="13" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D73" s="17"/>
       <c r="E73" s="15"/>
@@ -37517,13 +37614,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D28"/>
-    <hyperlink r:id="rId2" ref="D48"/>
-    <hyperlink r:id="rId3" ref="D51"/>
+    <hyperlink r:id="rId1" ref="D9"/>
+    <hyperlink r:id="rId2" ref="D28"/>
+    <hyperlink r:id="rId3" ref="D48"/>
+    <hyperlink r:id="rId4" ref="D51"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>